--- a/Practica1/ProcesoBusqueda/Data/Practica1_16.xlsx
+++ b/Practica1/ProcesoBusqueda/Data/Practica1_16.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARCHIVOS E\CHIPECH\PROGRAMACION\IA\LAB\IA1_Practicas_16\Practica1\ProcesoBusqueda\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccris\Documents\IA1_Practicas_16\Practica1\ProcesoBusqueda\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C3F121-E45D-4CD2-A86C-B27085DA06A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C78253-6B2B-4EBC-9B06-D3F7A0A0B5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{FF211DC2-FC04-41AC-9102-3344C0DE50AC}"/>
+    <workbookView xWindow="49560" yWindow="7530" windowWidth="24825" windowHeight="17505" xr2:uid="{FF211DC2-FC04-41AC-9102-3344C0DE50AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>ISBN</t>
   </si>
@@ -40,13 +40,104 @@
   </si>
   <si>
     <t>Authors</t>
+  </si>
+  <si>
+    <t>978-0061120084</t>
+  </si>
+  <si>
+    <t>To Kill a Mockingbird</t>
+  </si>
+  <si>
+    <t>Harper Lee</t>
+  </si>
+  <si>
+    <t>USD $16.99</t>
+  </si>
+  <si>
+    <t>Encontrado</t>
+  </si>
+  <si>
+    <t>978-1234567890</t>
+  </si>
+  <si>
+    <t>50 Bilim İnsanıyla Psikolojinin Kısa Tarihi</t>
+  </si>
+  <si>
+    <t>Jeremy Stangroom</t>
+  </si>
+  <si>
+    <t>No registrado</t>
+  </si>
+  <si>
+    <t>978-0451524935</t>
+  </si>
+  <si>
+    <t>George Orwell</t>
+  </si>
+  <si>
+    <t>USD $9.99</t>
+  </si>
+  <si>
+    <t>978-0743273565</t>
+  </si>
+  <si>
+    <t>The Great Gatsby: The Only Authorized Edition</t>
+  </si>
+  <si>
+    <t>Fitzgerald, F. Scott</t>
+  </si>
+  <si>
+    <t>USD $17.00</t>
+  </si>
+  <si>
+    <t>978-0987654321</t>
+  </si>
+  <si>
+    <t>One Man's Henry Moore</t>
+  </si>
+  <si>
+    <t>Finn, David
+Moore, Henry (Artist)</t>
+  </si>
+  <si>
+    <t>978-1503290563</t>
+  </si>
+  <si>
+    <t>Pride and Prejudice</t>
+  </si>
+  <si>
+    <t>Austen, Jane</t>
+  </si>
+  <si>
+    <t>978-0316769488</t>
+  </si>
+  <si>
+    <t>The Catcher in the Rye</t>
+  </si>
+  <si>
+    <t>J.D. Salinger</t>
+  </si>
+  <si>
+    <t>USD $5.92</t>
+  </si>
+  <si>
+    <t>978-0590353427</t>
+  </si>
+  <si>
+    <t>Harry Potter and the Sorcerer's Stone</t>
+  </si>
+  <si>
+    <t>Rowling, J.K.</t>
+  </si>
+  <si>
+    <t>USD $8.98</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,9 +166,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -93,10 +187,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,22 +506,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA65EA80-D8A2-44B8-97ED-35175390AF26}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,6 +536,210 @@
       </c>
       <c r="E1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>1984</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>1984</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
